--- a/inputs/es/demo_demo_input.xlsx
+++ b/inputs/es/demo_demo_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominic.delport\Documents\GitHub\Nutrition\inputs\es\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144C72E1-3093-4D19-8AFF-0618F02C24E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540221BB-DB0B-469F-A3FE-EF74DC519E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="961" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entradas de población-año base" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Causas de muerte" sheetId="4" r:id="rId3"/>
     <sheet name="Distribución estado nutricional" sheetId="5" r:id="rId4"/>
     <sheet name="Distribución de lactancia" sheetId="50" r:id="rId5"/>
-    <sheet name="Tendencias temporales" sheetId="51" r:id="rId6"/>
+    <sheet name="Tendencias temporales" sheetId="51" state="hidden" r:id="rId6"/>
     <sheet name="Pérdida económica" sheetId="74" r:id="rId7"/>
     <sheet name="Paquetes de IYCF" sheetId="55" r:id="rId8"/>
     <sheet name="Tratamiento de la MAS" sheetId="60" r:id="rId9"/>
@@ -97,7 +97,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -588,7 +593,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="341">
   <si>
     <t>Meningitis</t>
   </si>
@@ -2919,15 +2924,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="728">
@@ -5103,18 +5108,18 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6328125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" style="11" customWidth="1"/>
-    <col min="3" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="27.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -5125,14 +5130,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
     </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>18</v>
@@ -5141,7 +5146,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>26</v>
@@ -5150,7 +5155,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -5219,7 +5224,7 @@
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
@@ -5262,7 +5267,7 @@
       <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="115">
+      <c r="C20" s="114">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>0</v>
       </c>
@@ -5350,17 +5355,17 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="116">
+      <c r="C33" s="115">
         <f>SUM(C29:C32)</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>20</v>
       </c>
@@ -5464,7 +5469,7 @@
       <c r="B48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="115">
+      <c r="C48" s="114">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>0.495</v>
       </c>
@@ -5566,7 +5571,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -5588,19 +5593,19 @@
       <selection activeCell="F2" sqref="F2:G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="40" customWidth="1"/>
     <col min="2" max="2" width="20" style="28" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="28" customWidth="1"/>
-    <col min="5" max="5" width="36.36328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="28"/>
+    <col min="7" max="7" width="22.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>163</v>
       </c>
@@ -6528,19 +6533,19 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.90625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="42.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="47.88671875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>163</v>
       </c>
@@ -6681,13 +6686,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="28" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="30.109375" style="28" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>163</v>
       </c>
@@ -6780,7 +6785,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -6895,19 +6900,19 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.90625" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>209</v>
       </c>
@@ -6954,7 +6959,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -7515,7 +7520,7 @@
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>104</v>
       </c>
@@ -7566,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>166</v>
@@ -7611,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>178</v>
@@ -7660,7 +7665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>179</v>
@@ -7896,7 +7901,7 @@
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>211</v>
       </c>
@@ -8146,7 +8151,7 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>210</v>
       </c>
@@ -8654,7 +8659,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
@@ -8693,16 +8698,16 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="28" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="28"/>
-    <col min="5" max="5" width="17.453125" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="28"/>
+    <col min="1" max="1" width="33.6640625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="28" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="28"/>
+    <col min="5" max="5" width="17.44140625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>223</v>
       </c>
@@ -8719,7 +8724,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>215</v>
       </c>
@@ -8737,7 +8742,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>222</v>
       </c>
@@ -8755,7 +8760,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>217</v>
       </c>
@@ -8773,7 +8778,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>221</v>
       </c>
@@ -8791,7 +8796,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>220</v>
       </c>
@@ -8809,7 +8814,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>224</v>
       </c>
@@ -8827,7 +8832,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>226</v>
       </c>
@@ -8845,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>218</v>
       </c>
@@ -8863,7 +8868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>219</v>
       </c>
@@ -8900,20 +8905,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.1796875" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.453125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" style="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="43" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.08984375" style="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="15.36328125" style="43" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.90625" style="43" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="16.08984375" style="43"/>
+    <col min="6" max="7" width="13.109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="15.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.88671875" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="16.109375" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>209</v>
       </c>
@@ -8960,7 +8965,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>83</v>
       </c>
@@ -9007,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="40" t="s">
         <v>169</v>
       </c>
@@ -9051,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
         <v>151</v>
       </c>
@@ -9095,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="40" t="s">
         <v>152</v>
       </c>
@@ -9139,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="40" t="s">
         <v>153</v>
       </c>
@@ -9183,7 +9188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="40" t="s">
         <v>182</v>
       </c>
@@ -9227,7 +9232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="40" t="s">
         <v>184</v>
       </c>
@@ -9271,7 +9276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="40" t="s">
         <v>190</v>
       </c>
@@ -9315,7 +9320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="40" t="s">
         <v>192</v>
       </c>
@@ -9359,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="40" t="s">
         <v>193</v>
       </c>
@@ -9403,7 +9408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
         <v>204</v>
       </c>
@@ -9447,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="40" t="s">
         <v>164</v>
       </c>
@@ -9491,7 +9496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="40" t="s">
         <v>196</v>
       </c>
@@ -9535,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="40" t="s">
         <v>202</v>
       </c>
@@ -9579,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="40" t="s">
         <v>203</v>
       </c>
@@ -9623,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="40"/>
       <c r="C17" s="99"/>
       <c r="D17" s="99"/>
@@ -9639,7 +9644,7 @@
       <c r="N17" s="99"/>
       <c r="O17" s="99"/>
     </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>104</v>
       </c>
@@ -9686,7 +9691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44"/>
       <c r="B19" s="40" t="s">
         <v>166</v>
@@ -9731,7 +9736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="73" t="s">
         <v>178</v>
       </c>
@@ -9775,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="73" t="s">
         <v>179</v>
       </c>
@@ -9819,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="74" t="s">
         <v>180</v>
       </c>
@@ -9863,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="40" t="s">
         <v>188</v>
       </c>
@@ -9907,7 +9912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="40" t="s">
         <v>189</v>
       </c>
@@ -9951,7 +9956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="40" t="s">
         <v>191</v>
       </c>
@@ -9995,7 +10000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="40"/>
       <c r="C26" s="99"/>
       <c r="D26" s="99"/>
@@ -10011,7 +10016,7 @@
       <c r="N26" s="99"/>
       <c r="O26" s="99"/>
     </row>
-    <row r="27" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>211</v>
       </c>
@@ -10059,7 +10064,7 @@
       </c>
       <c r="P27" s="75"/>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="46" t="s">
         <v>174</v>
       </c>
@@ -10103,7 +10108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="44"/>
       <c r="B29" s="46" t="s">
         <v>175</v>
@@ -10148,7 +10153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="46" t="s">
         <v>176</v>
       </c>
@@ -10192,7 +10197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="46" t="s">
         <v>177</v>
       </c>
@@ -10236,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="40"/>
       <c r="C32" s="100"/>
       <c r="D32" s="100"/>
@@ -10252,7 +10257,7 @@
       <c r="N32" s="99"/>
       <c r="O32" s="99"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>210</v>
       </c>
@@ -10299,7 +10304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="40" t="s">
         <v>172</v>
       </c>
@@ -10343,7 +10348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="40" t="s">
         <v>173</v>
       </c>
@@ -10387,7 +10392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="40" t="s">
         <v>181</v>
       </c>
@@ -10431,7 +10436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="40" t="s">
         <v>185</v>
       </c>
@@ -10475,7 +10480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="40" t="s">
         <v>197</v>
       </c>
@@ -10519,7 +10524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="40" t="s">
         <v>198</v>
       </c>
@@ -10563,7 +10568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="40" t="s">
         <v>199</v>
       </c>
@@ -10607,7 +10612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="40" t="s">
         <v>200</v>
       </c>
@@ -10651,7 +10656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="40" t="s">
         <v>201</v>
       </c>
@@ -10712,22 +10717,22 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="28"/>
+    <col min="1" max="1" width="58.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>163</v>
       </c>
@@ -11479,22 +11484,22 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="12.81640625" style="28"/>
+    <col min="1" max="1" width="16.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>233</v>
       </c>
@@ -11853,14 +11858,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="8" customWidth="1"/>
-    <col min="2" max="9" width="16.90625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="14.453125" style="8"/>
+    <col min="1" max="1" width="8.44140625" style="8" customWidth="1"/>
+    <col min="2" max="9" width="16.88671875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="14.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>73</v>
       </c>
@@ -12948,15 +12953,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.08984375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="28" customWidth="1"/>
     <col min="2" max="2" width="15" style="28" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="12.81640625" style="28"/>
+    <col min="3" max="3" width="14.6640625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>234</v>
       </c>
@@ -12982,11 +12987,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -13009,7 +13014,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="114"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="28" t="s">
         <v>149</v>
       </c>
@@ -13031,7 +13036,7 @@
       <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="114"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="28" t="s">
         <v>155</v>
       </c>
@@ -13053,7 +13058,7 @@
       <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="28" t="s">
@@ -13077,7 +13082,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="114"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="28" t="s">
         <v>149</v>
       </c>
@@ -13098,7 +13103,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="114"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="28" t="s">
         <v>155</v>
       </c>
@@ -13119,7 +13124,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="114" t="s">
+      <c r="B8" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C8" s="28" t="s">
@@ -13142,7 +13147,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="114"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="28" t="s">
         <v>149</v>
       </c>
@@ -13163,7 +13168,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="114"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="28" t="s">
         <v>155</v>
       </c>
@@ -13184,7 +13189,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="114" t="s">
+      <c r="B11" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -13207,7 +13212,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="114"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="28" t="s">
         <v>149</v>
       </c>
@@ -13228,7 +13233,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="114"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="28" t="s">
         <v>155</v>
       </c>
@@ -13249,7 +13254,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="114" t="s">
+      <c r="B14" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -13272,7 +13277,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="114"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="28" t="s">
         <v>149</v>
       </c>
@@ -13293,7 +13298,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="114"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="28" t="s">
         <v>155</v>
       </c>
@@ -13313,7 +13318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="77" t="s">
         <v>148</v>
       </c>
@@ -13343,11 +13348,11 @@
       <c r="G18" s="101"/>
       <c r="H18" s="101"/>
     </row>
-    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -13370,7 +13375,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="114"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="28" t="s">
         <v>149</v>
       </c>
@@ -13391,7 +13396,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="114"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="28" t="s">
         <v>155</v>
       </c>
@@ -13412,7 +13417,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C22" s="28" t="s">
@@ -13435,7 +13440,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="114"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="28" t="s">
         <v>149</v>
       </c>
@@ -13456,7 +13461,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="114"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="28" t="s">
         <v>155</v>
       </c>
@@ -13477,7 +13482,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -13500,7 +13505,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="114"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="28" t="s">
         <v>149</v>
       </c>
@@ -13521,7 +13526,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="114"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="28" t="s">
         <v>155</v>
       </c>
@@ -13542,7 +13547,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="114" t="s">
+      <c r="B28" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="28" t="s">
@@ -13565,7 +13570,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="114"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="28" t="s">
         <v>149</v>
       </c>
@@ -13586,7 +13591,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="114"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="28" t="s">
         <v>155</v>
       </c>
@@ -13607,7 +13612,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -13630,7 +13635,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="114"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="28" t="s">
         <v>149</v>
       </c>
@@ -13651,7 +13656,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="114"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="28" t="s">
         <v>155</v>
       </c>
@@ -13671,7 +13676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="77" t="s">
         <v>148</v>
       </c>
@@ -13701,11 +13706,11 @@
       <c r="G35" s="101"/>
       <c r="H35" s="101"/>
     </row>
-    <row r="36" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="B36" s="114" t="s">
+      <c r="B36" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -13728,7 +13733,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="114"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="28" t="s">
         <v>149</v>
       </c>
@@ -13749,7 +13754,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="114"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="28" t="s">
         <v>155</v>
       </c>
@@ -13770,7 +13775,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="114" t="s">
+      <c r="B39" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="28" t="s">
@@ -13793,7 +13798,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="114"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="28" t="s">
         <v>149</v>
       </c>
@@ -13814,7 +13819,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="114"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="28" t="s">
         <v>155</v>
       </c>
@@ -13835,7 +13840,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -13858,7 +13863,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="114"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="28" t="s">
         <v>149</v>
       </c>
@@ -13879,7 +13884,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="114"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="28" t="s">
         <v>155</v>
       </c>
@@ -13900,7 +13905,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B45" s="114" t="s">
+      <c r="B45" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C45" s="28" t="s">
@@ -13923,7 +13928,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="114"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="28" t="s">
         <v>149</v>
       </c>
@@ -13944,7 +13949,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B47" s="114"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="28" t="s">
         <v>155</v>
       </c>
@@ -13965,7 +13970,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="28" t="s">
@@ -13988,7 +13993,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="114"/>
+      <c r="B49" s="117"/>
       <c r="C49" s="28" t="s">
         <v>149</v>
       </c>
@@ -14009,7 +14014,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="114"/>
+      <c r="B50" s="117"/>
       <c r="C50" s="28" t="s">
         <v>155</v>
       </c>
@@ -14029,7 +14034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B51" s="77" t="s">
         <v>148</v>
       </c>
@@ -14052,7 +14057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="107" t="s">
         <v>235</v>
       </c>
@@ -14064,7 +14069,7 @@
       <c r="G53" s="107"/>
       <c r="H53" s="107"/>
     </row>
-    <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>234</v>
       </c>
@@ -14090,11 +14095,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="B55" s="114" t="s">
+      <c r="B55" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C55" s="28" t="s">
@@ -14122,7 +14127,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="114"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="28" t="s">
         <v>149</v>
       </c>
@@ -14148,7 +14153,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="114"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="28" t="s">
         <v>155</v>
       </c>
@@ -14174,7 +14179,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="114" t="s">
+      <c r="B58" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C58" s="28" t="s">
@@ -14202,7 +14207,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="114"/>
+      <c r="B59" s="117"/>
       <c r="C59" s="28" t="s">
         <v>149</v>
       </c>
@@ -14228,7 +14233,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="114"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="28" t="s">
         <v>155</v>
       </c>
@@ -14254,7 +14259,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="114" t="s">
+      <c r="B61" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C61" s="28" t="s">
@@ -14282,7 +14287,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="114"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="28" t="s">
         <v>149</v>
       </c>
@@ -14308,7 +14313,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="114"/>
+      <c r="B63" s="117"/>
       <c r="C63" s="28" t="s">
         <v>155</v>
       </c>
@@ -14334,7 +14339,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="114" t="s">
+      <c r="B64" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -14362,7 +14367,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="114"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="28" t="s">
         <v>149</v>
       </c>
@@ -14388,7 +14393,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="114"/>
+      <c r="B66" s="117"/>
       <c r="C66" s="28" t="s">
         <v>155</v>
       </c>
@@ -14414,7 +14419,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="114" t="s">
+      <c r="B67" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C67" s="28" t="s">
@@ -14442,7 +14447,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="114"/>
+      <c r="B68" s="117"/>
       <c r="C68" s="28" t="s">
         <v>149</v>
       </c>
@@ -14468,7 +14473,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="114"/>
+      <c r="B69" s="117"/>
       <c r="C69" s="28" t="s">
         <v>155</v>
       </c>
@@ -14493,7 +14498,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="77" t="s">
         <v>148</v>
       </c>
@@ -14528,11 +14533,11 @@
       <c r="G71" s="101"/>
       <c r="H71" s="101"/>
     </row>
-    <row r="72" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="B72" s="114" t="s">
+      <c r="B72" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C72" s="28" t="s">
@@ -14560,7 +14565,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B73" s="114"/>
+      <c r="B73" s="117"/>
       <c r="C73" s="28" t="s">
         <v>149</v>
       </c>
@@ -14586,7 +14591,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="114"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="28" t="s">
         <v>155</v>
       </c>
@@ -14612,7 +14617,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="114" t="s">
+      <c r="B75" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C75" s="28" t="s">
@@ -14640,7 +14645,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="114"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="28" t="s">
         <v>149</v>
       </c>
@@ -14666,7 +14671,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="114"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="28" t="s">
         <v>155</v>
       </c>
@@ -14692,7 +14697,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="114" t="s">
+      <c r="B78" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C78" s="28" t="s">
@@ -14720,7 +14725,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="114"/>
+      <c r="B79" s="117"/>
       <c r="C79" s="28" t="s">
         <v>149</v>
       </c>
@@ -14746,7 +14751,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B80" s="114"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="28" t="s">
         <v>155</v>
       </c>
@@ -14772,7 +14777,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="114" t="s">
+      <c r="B81" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C81" s="28" t="s">
@@ -14800,7 +14805,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="114"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="28" t="s">
         <v>149</v>
       </c>
@@ -14826,7 +14831,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B83" s="114"/>
+      <c r="B83" s="117"/>
       <c r="C83" s="28" t="s">
         <v>155</v>
       </c>
@@ -14852,7 +14857,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="114" t="s">
+      <c r="B84" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C84" s="28" t="s">
@@ -14880,7 +14885,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="114"/>
+      <c r="B85" s="117"/>
       <c r="C85" s="28" t="s">
         <v>149</v>
       </c>
@@ -14906,7 +14911,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="114"/>
+      <c r="B86" s="117"/>
       <c r="C86" s="28" t="s">
         <v>155</v>
       </c>
@@ -14931,7 +14936,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B87" s="77" t="s">
         <v>148</v>
       </c>
@@ -14966,11 +14971,11 @@
       <c r="G88" s="101"/>
       <c r="H88" s="101"/>
     </row>
-    <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="B89" s="114" t="s">
+      <c r="B89" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C89" s="28" t="s">
@@ -14998,7 +15003,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="114"/>
+      <c r="B90" s="117"/>
       <c r="C90" s="28" t="s">
         <v>149</v>
       </c>
@@ -15024,7 +15029,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="114"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="28" t="s">
         <v>155</v>
       </c>
@@ -15050,7 +15055,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="114" t="s">
+      <c r="B92" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C92" s="28" t="s">
@@ -15078,7 +15083,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B93" s="114"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="28" t="s">
         <v>149</v>
       </c>
@@ -15104,7 +15109,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B94" s="114"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="28" t="s">
         <v>155</v>
       </c>
@@ -15130,7 +15135,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B95" s="114" t="s">
+      <c r="B95" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C95" s="28" t="s">
@@ -15158,7 +15163,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="114"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="28" t="s">
         <v>149</v>
       </c>
@@ -15184,7 +15189,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B97" s="114"/>
+      <c r="B97" s="117"/>
       <c r="C97" s="28" t="s">
         <v>155</v>
       </c>
@@ -15210,7 +15215,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B98" s="114" t="s">
+      <c r="B98" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C98" s="28" t="s">
@@ -15238,7 +15243,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B99" s="114"/>
+      <c r="B99" s="117"/>
       <c r="C99" s="28" t="s">
         <v>149</v>
       </c>
@@ -15264,7 +15269,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B100" s="114"/>
+      <c r="B100" s="117"/>
       <c r="C100" s="28" t="s">
         <v>155</v>
       </c>
@@ -15290,7 +15295,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B101" s="114" t="s">
+      <c r="B101" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C101" s="28" t="s">
@@ -15318,7 +15323,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B102" s="114"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="28" t="s">
         <v>149</v>
       </c>
@@ -15344,7 +15349,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B103" s="114"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="28" t="s">
         <v>155</v>
       </c>
@@ -15369,7 +15374,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B104" s="77" t="s">
         <v>148</v>
       </c>
@@ -15397,7 +15402,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="107" t="s">
         <v>245</v>
       </c>
@@ -15409,7 +15414,7 @@
       <c r="G106" s="107"/>
       <c r="H106" s="107"/>
     </row>
-    <row r="107" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>234</v>
       </c>
@@ -15435,11 +15440,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="B108" s="114" t="s">
+      <c r="B108" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C108" s="28" t="s">
@@ -15467,7 +15472,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B109" s="114"/>
+      <c r="B109" s="117"/>
       <c r="C109" s="28" t="s">
         <v>149</v>
       </c>
@@ -15493,7 +15498,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B110" s="114"/>
+      <c r="B110" s="117"/>
       <c r="C110" s="28" t="s">
         <v>155</v>
       </c>
@@ -15519,7 +15524,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B111" s="114" t="s">
+      <c r="B111" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C111" s="28" t="s">
@@ -15547,7 +15552,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B112" s="114"/>
+      <c r="B112" s="117"/>
       <c r="C112" s="28" t="s">
         <v>149</v>
       </c>
@@ -15573,7 +15578,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="114"/>
+      <c r="B113" s="117"/>
       <c r="C113" s="28" t="s">
         <v>155</v>
       </c>
@@ -15599,7 +15604,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="114" t="s">
+      <c r="B114" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C114" s="28" t="s">
@@ -15627,7 +15632,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="114"/>
+      <c r="B115" s="117"/>
       <c r="C115" s="28" t="s">
         <v>149</v>
       </c>
@@ -15653,7 +15658,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="114"/>
+      <c r="B116" s="117"/>
       <c r="C116" s="28" t="s">
         <v>155</v>
       </c>
@@ -15679,7 +15684,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="114" t="s">
+      <c r="B117" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C117" s="28" t="s">
@@ -15707,7 +15712,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="114"/>
+      <c r="B118" s="117"/>
       <c r="C118" s="28" t="s">
         <v>149</v>
       </c>
@@ -15733,7 +15738,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="114"/>
+      <c r="B119" s="117"/>
       <c r="C119" s="28" t="s">
         <v>155</v>
       </c>
@@ -15759,7 +15764,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="114" t="s">
+      <c r="B120" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C120" s="28" t="s">
@@ -15787,7 +15792,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="114"/>
+      <c r="B121" s="117"/>
       <c r="C121" s="28" t="s">
         <v>149</v>
       </c>
@@ -15813,7 +15818,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="114"/>
+      <c r="B122" s="117"/>
       <c r="C122" s="28" t="s">
         <v>155</v>
       </c>
@@ -15838,7 +15843,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B123" s="77" t="s">
         <v>148</v>
       </c>
@@ -15873,11 +15878,11 @@
       <c r="G124" s="101"/>
       <c r="H124" s="101"/>
     </row>
-    <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="114" t="s">
+      <c r="B125" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C125" s="28" t="s">
@@ -15905,7 +15910,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="114"/>
+      <c r="B126" s="117"/>
       <c r="C126" s="28" t="s">
         <v>149</v>
       </c>
@@ -15931,7 +15936,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="114"/>
+      <c r="B127" s="117"/>
       <c r="C127" s="28" t="s">
         <v>155</v>
       </c>
@@ -15957,7 +15962,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="114" t="s">
+      <c r="B128" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C128" s="28" t="s">
@@ -15985,7 +15990,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="114"/>
+      <c r="B129" s="117"/>
       <c r="C129" s="28" t="s">
         <v>149</v>
       </c>
@@ -16011,7 +16016,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="114"/>
+      <c r="B130" s="117"/>
       <c r="C130" s="28" t="s">
         <v>155</v>
       </c>
@@ -16037,7 +16042,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="114" t="s">
+      <c r="B131" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C131" s="28" t="s">
@@ -16065,7 +16070,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B132" s="114"/>
+      <c r="B132" s="117"/>
       <c r="C132" s="28" t="s">
         <v>149</v>
       </c>
@@ -16091,7 +16096,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B133" s="114"/>
+      <c r="B133" s="117"/>
       <c r="C133" s="28" t="s">
         <v>155</v>
       </c>
@@ -16117,7 +16122,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B134" s="114" t="s">
+      <c r="B134" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C134" s="28" t="s">
@@ -16145,7 +16150,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B135" s="114"/>
+      <c r="B135" s="117"/>
       <c r="C135" s="28" t="s">
         <v>149</v>
       </c>
@@ -16171,7 +16176,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B136" s="114"/>
+      <c r="B136" s="117"/>
       <c r="C136" s="28" t="s">
         <v>155</v>
       </c>
@@ -16197,7 +16202,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B137" s="114" t="s">
+      <c r="B137" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C137" s="28" t="s">
@@ -16225,7 +16230,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B138" s="114"/>
+      <c r="B138" s="117"/>
       <c r="C138" s="28" t="s">
         <v>149</v>
       </c>
@@ -16251,7 +16256,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B139" s="114"/>
+      <c r="B139" s="117"/>
       <c r="C139" s="28" t="s">
         <v>155</v>
       </c>
@@ -16276,7 +16281,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B140" s="77" t="s">
         <v>148</v>
       </c>
@@ -16311,11 +16316,11 @@
       <c r="G141" s="101"/>
       <c r="H141" s="101"/>
     </row>
-    <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="78" t="s">
         <v>241</v>
       </c>
-      <c r="B142" s="114" t="s">
+      <c r="B142" s="117" t="s">
         <v>104</v>
       </c>
       <c r="C142" s="28" t="s">
@@ -16343,7 +16348,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B143" s="114"/>
+      <c r="B143" s="117"/>
       <c r="C143" s="28" t="s">
         <v>149</v>
       </c>
@@ -16369,7 +16374,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B144" s="114"/>
+      <c r="B144" s="117"/>
       <c r="C144" s="28" t="s">
         <v>155</v>
       </c>
@@ -16395,7 +16400,7 @@
       </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B145" s="114" t="s">
+      <c r="B145" s="117" t="s">
         <v>78</v>
       </c>
       <c r="C145" s="28" t="s">
@@ -16423,7 +16428,7 @@
       </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B146" s="114"/>
+      <c r="B146" s="117"/>
       <c r="C146" s="28" t="s">
         <v>149</v>
       </c>
@@ -16449,7 +16454,7 @@
       </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B147" s="114"/>
+      <c r="B147" s="117"/>
       <c r="C147" s="28" t="s">
         <v>155</v>
       </c>
@@ -16475,7 +16480,7 @@
       </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B148" s="114" t="s">
+      <c r="B148" s="117" t="s">
         <v>74</v>
       </c>
       <c r="C148" s="28" t="s">
@@ -16503,7 +16508,7 @@
       </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B149" s="114"/>
+      <c r="B149" s="117"/>
       <c r="C149" s="28" t="s">
         <v>149</v>
       </c>
@@ -16529,7 +16534,7 @@
       </c>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B150" s="114"/>
+      <c r="B150" s="117"/>
       <c r="C150" s="28" t="s">
         <v>155</v>
       </c>
@@ -16555,7 +16560,7 @@
       </c>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B151" s="114" t="s">
+      <c r="B151" s="117" t="s">
         <v>77</v>
       </c>
       <c r="C151" s="28" t="s">
@@ -16583,7 +16588,7 @@
       </c>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B152" s="114"/>
+      <c r="B152" s="117"/>
       <c r="C152" s="28" t="s">
         <v>149</v>
       </c>
@@ -16609,7 +16614,7 @@
       </c>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B153" s="114"/>
+      <c r="B153" s="117"/>
       <c r="C153" s="28" t="s">
         <v>155</v>
       </c>
@@ -16635,7 +16640,7 @@
       </c>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B154" s="114" t="s">
+      <c r="B154" s="117" t="s">
         <v>75</v>
       </c>
       <c r="C154" s="28" t="s">
@@ -16663,7 +16668,7 @@
       </c>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B155" s="114"/>
+      <c r="B155" s="117"/>
       <c r="C155" s="28" t="s">
         <v>149</v>
       </c>
@@ -16689,7 +16694,7 @@
       </c>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B156" s="114"/>
+      <c r="B156" s="117"/>
       <c r="C156" s="28" t="s">
         <v>155</v>
       </c>
@@ -16714,7 +16719,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="157" spans="2:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="77" t="s">
         <v>148</v>
       </c>
@@ -16745,6 +16750,42 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="TySjcQ3cZKAhvCVtqukwx+Brh3QqySyX6u1Ir4ln2eG/yPsONTsurP782qPpmW3r4kCP2UsulEi/iMokEOt/yw==" saltValue="ZVdCbbyzBC9w3TfMh2e1Iw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
     <mergeCell ref="B145:B147"/>
     <mergeCell ref="B148:B150"/>
     <mergeCell ref="B151:B153"/>
@@ -16754,42 +16795,6 @@
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -16810,22 +16815,22 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="28" customWidth="1"/>
     <col min="5" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="16.08984375" style="28"/>
+    <col min="7" max="16384" width="16.109375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="81"/>
       <c r="C2" s="82" t="s">
         <v>58</v>
@@ -16840,7 +16845,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>255</v>
       </c>
@@ -16924,7 +16929,7 @@
       <c r="E8" s="76"/>
       <c r="F8" s="76"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>252</v>
       </c>
@@ -16947,7 +16952,7 @@
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
     </row>
-    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>261</v>
       </c>
@@ -16956,7 +16961,7 @@
       <c r="E11" s="89"/>
       <c r="F11" s="89"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>249</v>
       </c>
@@ -17016,7 +17021,7 @@
         <v>4.1900000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="46"/>
       <c r="C16" s="90"/>
@@ -17024,7 +17029,7 @@
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>258</v>
       </c>
@@ -17173,7 +17178,7 @@
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="46"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="107" t="s">
         <v>235</v>
       </c>
@@ -17183,12 +17188,12 @@
       <c r="E27" s="110"/>
       <c r="F27" s="110"/>
     </row>
-    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="81"/>
       <c r="C29" s="82" t="s">
         <v>58</v>
@@ -17203,7 +17208,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>256</v>
       </c>
@@ -17303,7 +17308,7 @@
       <c r="E35" s="76"/>
       <c r="F35" s="76"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>253</v>
       </c>
@@ -17324,7 +17329,7 @@
         <v>1.071</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
         <v>261</v>
       </c>
@@ -17334,7 +17339,7 @@
       <c r="E38" s="89"/>
       <c r="F38" s="89"/>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>250</v>
       </c>
@@ -17406,7 +17411,7 @@
         <v>2.9330000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="46"/>
       <c r="C43" s="90"/>
@@ -17414,7 +17419,7 @@
       <c r="E43" s="76"/>
       <c r="F43" s="76"/>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>259</v>
       </c>
@@ -17592,7 +17597,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="107" t="s">
         <v>245</v>
       </c>
@@ -17602,12 +17607,12 @@
       <c r="E54" s="110"/>
       <c r="F54" s="110"/>
     </row>
-    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="80" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="81"/>
       <c r="C56" s="82" t="s">
         <v>58</v>
@@ -17622,7 +17627,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>257</v>
       </c>
@@ -17722,7 +17727,7 @@
       <c r="E62" s="76"/>
       <c r="F62" s="76"/>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>254</v>
       </c>
@@ -17743,7 +17748,7 @@
         <v>1.9890000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>261</v>
       </c>
@@ -17753,7 +17758,7 @@
       <c r="E65" s="89"/>
       <c r="F65" s="89"/>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>251</v>
       </c>
@@ -17825,7 +17830,7 @@
         <v>5.447000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="46"/>
       <c r="C70" s="90"/>
@@ -17833,7 +17838,7 @@
       <c r="E70" s="76"/>
       <c r="F70" s="76"/>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>260</v>
       </c>
@@ -18032,23 +18037,23 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" style="28" customWidth="1"/>
-    <col min="4" max="8" width="14.81640625" style="28" customWidth="1"/>
-    <col min="9" max="12" width="15.36328125" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="16.90625" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.81640625" style="28"/>
+    <col min="1" max="1" width="27.21875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="28" customWidth="1"/>
+    <col min="4" max="8" width="14.77734375" style="28" customWidth="1"/>
+    <col min="9" max="12" width="15.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="16.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
         <v>230</v>
       </c>
@@ -18082,7 +18087,7 @@
       <c r="O2" s="94"/>
       <c r="P2" s="94"/>
     </row>
-    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="28" t="s">
         <v>84</v>
@@ -18515,7 +18520,7 @@
       <c r="O17" s="93"/>
       <c r="P17" s="93"/>
     </row>
-    <row r="18" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="32" t="s">
         <v>272</v>
       </c>
@@ -18773,12 +18778,12 @@
       <c r="O26" s="93"/>
       <c r="P26" s="93"/>
     </row>
-    <row r="28" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="93" t="s">
         <v>282</v>
       </c>
@@ -18812,7 +18817,7 @@
       <c r="O29" s="94"/>
       <c r="P29" s="94"/>
     </row>
-    <row r="30" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="28" t="s">
         <v>84</v>
@@ -19507,12 +19512,12 @@
       <c r="C54" s="32"/>
       <c r="D54" s="32"/>
     </row>
-    <row r="55" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A56" s="93" t="s">
         <v>105</v>
       </c>
@@ -19540,7 +19545,7 @@
       <c r="O56" s="94"/>
       <c r="P56" s="94"/>
     </row>
-    <row r="57" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="28" t="s">
         <v>81</v>
@@ -19686,12 +19691,12 @@
       <c r="C63" s="32"/>
       <c r="D63" s="32"/>
     </row>
-    <row r="64" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="79" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="93" t="s">
         <v>123</v>
       </c>
@@ -19725,7 +19730,7 @@
       <c r="O65" s="94"/>
       <c r="P65" s="94"/>
     </row>
-    <row r="66" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="97"/>
       <c r="B66" s="28" t="s">
         <v>93</v>
@@ -20761,12 +20766,12 @@
       <c r="O101" s="93"/>
       <c r="P101" s="93"/>
     </row>
-    <row r="103" spans="1:16" s="80" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="79" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="93" t="s">
         <v>84</v>
       </c>
@@ -20800,7 +20805,7 @@
       <c r="O104" s="94"/>
       <c r="P104" s="94"/>
     </row>
-    <row r="105" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="C105" s="32" t="s">
         <v>124</v>
@@ -20913,13 +20918,13 @@
       <c r="O108" s="93"/>
       <c r="P108" s="93"/>
     </row>
-    <row r="110" spans="1:16" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="107" t="s">
         <v>235</v>
       </c>
       <c r="H110" s="107"/>
     </row>
-    <row r="111" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="79" t="s">
         <v>278</v>
       </c>
@@ -20931,7 +20936,7 @@
       <c r="G111" s="80"/>
       <c r="H111" s="80"/>
     </row>
-    <row r="112" spans="1:16" ht="13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="93" t="s">
         <v>230</v>
       </c>
@@ -20957,7 +20962,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
       <c r="B113" s="28" t="s">
         <v>84</v>
@@ -21576,7 +21581,7 @@
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="79" t="s">
         <v>279</v>
       </c>
@@ -21588,7 +21593,7 @@
       <c r="G138" s="80"/>
       <c r="H138" s="80"/>
     </row>
-    <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="93" t="s">
         <v>282</v>
       </c>
@@ -21614,7 +21619,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
       <c r="B140" s="28" t="s">
         <v>84</v>
@@ -22237,7 +22242,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="32"/>
     </row>
-    <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="79" t="s">
         <v>276</v>
       </c>
@@ -22249,7 +22254,7 @@
       <c r="G165" s="80"/>
       <c r="H165" s="80"/>
     </row>
-    <row r="166" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A166" s="93" t="s">
         <v>105</v>
       </c>
@@ -22273,7 +22278,7 @@
       </c>
       <c r="H166" s="94"/>
     </row>
-    <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="30"/>
       <c r="B167" s="28" t="s">
         <v>81</v>
@@ -22419,7 +22424,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="32"/>
     </row>
-    <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="79" t="s">
         <v>277</v>
       </c>
@@ -22431,7 +22436,7 @@
       <c r="G174" s="80"/>
       <c r="H174" s="80"/>
     </row>
-    <row r="175" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A175" s="93" t="s">
         <v>123</v>
       </c>
@@ -22457,7 +22462,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="97"/>
       <c r="B176" s="28" t="s">
         <v>93</v>
@@ -23349,7 +23354,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="79" t="s">
         <v>280</v>
       </c>
@@ -23361,7 +23366,7 @@
       <c r="G213" s="80"/>
       <c r="H213" s="80"/>
     </row>
-    <row r="214" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A214" s="93" t="s">
         <v>84</v>
       </c>
@@ -23387,7 +23392,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="30"/>
       <c r="C215" s="32" t="s">
         <v>124</v>
@@ -23484,13 +23489,13 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="107" t="s">
         <v>245</v>
       </c>
       <c r="H220" s="107"/>
     </row>
-    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="79" t="s">
         <v>278</v>
       </c>
@@ -23503,7 +23508,7 @@
       <c r="H221" s="80"/>
       <c r="I221" s="80"/>
     </row>
-    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="93" t="s">
         <v>230</v>
       </c>
@@ -23530,7 +23535,7 @@
       </c>
       <c r="I222" s="94"/>
     </row>
-    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="30"/>
       <c r="B223" s="28" t="s">
         <v>84</v>
@@ -24173,7 +24178,7 @@
       </c>
       <c r="I246" s="93"/>
     </row>
-    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="79" t="s">
         <v>279</v>
       </c>
@@ -24186,7 +24191,7 @@
       <c r="H248" s="80"/>
       <c r="I248" s="80"/>
     </row>
-    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="93" t="s">
         <v>282</v>
       </c>
@@ -24213,7 +24218,7 @@
       </c>
       <c r="I249" s="94"/>
     </row>
-    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="30"/>
       <c r="B250" s="28" t="s">
         <v>84</v>
@@ -24860,7 +24865,7 @@
       <c r="C274" s="32"/>
       <c r="D274" s="32"/>
     </row>
-    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="79" t="s">
         <v>276</v>
       </c>
@@ -24873,7 +24878,7 @@
       <c r="H275" s="80"/>
       <c r="I275" s="80"/>
     </row>
-    <row r="276" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A276" s="93" t="s">
         <v>105</v>
       </c>
@@ -24897,7 +24902,7 @@
       </c>
       <c r="H276" s="94"/>
     </row>
-    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="30"/>
       <c r="B277" s="28" t="s">
         <v>81</v>
@@ -25043,7 +25048,7 @@
       <c r="C283" s="32"/>
       <c r="D283" s="32"/>
     </row>
-    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="79" t="s">
         <v>277</v>
       </c>
@@ -25056,7 +25061,7 @@
       <c r="H284" s="80"/>
       <c r="I284" s="80"/>
     </row>
-    <row r="285" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A285" s="93" t="s">
         <v>123</v>
       </c>
@@ -25083,7 +25088,7 @@
       </c>
       <c r="I285" s="94"/>
     </row>
-    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="97"/>
       <c r="B286" s="28" t="s">
         <v>93</v>
@@ -26011,7 +26016,7 @@
       </c>
       <c r="I321" s="93"/>
     </row>
-    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="79" t="s">
         <v>280</v>
       </c>
@@ -26024,7 +26029,7 @@
       <c r="H323" s="80"/>
       <c r="I323" s="80"/>
     </row>
-    <row r="324" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A324" s="93" t="s">
         <v>84</v>
       </c>
@@ -26051,7 +26056,7 @@
       </c>
       <c r="I324" s="94"/>
     </row>
-    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="30"/>
       <c r="C325" s="32" t="s">
         <v>124</v>
@@ -26173,24 +26178,24 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.90625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="44.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" style="28" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" style="28" customWidth="1"/>
+    <col min="1" max="1" width="44.88671875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="28" customWidth="1"/>
     <col min="6" max="6" width="15" style="28" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="28"/>
+    <col min="7" max="7" width="13.6640625" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="79" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
         <v>208</v>
       </c>
@@ -26231,7 +26236,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="73" t="s">
         <v>286</v>
@@ -26252,7 +26257,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
         <v>283</v>
       </c>
@@ -26345,12 +26350,12 @@
       <c r="F10" s="73"/>
       <c r="G10" s="73"/>
     </row>
-    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="79" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="84"/>
       <c r="B12" s="46" t="s">
         <v>182</v>
@@ -26371,16 +26376,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="84"/>
       <c r="B13" s="46"/>
     </row>
-    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="97" t="s">
         <v>282</v>
       </c>
@@ -26403,7 +26408,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="73" t="s">
         <v>291</v>
@@ -26424,7 +26429,7 @@
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="97" t="s">
         <v>105</v>
       </c>
@@ -26448,12 +26453,12 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="80" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="84" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="44" t="s">
         <v>68</v>
       </c>
@@ -26484,12 +26489,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
         <v>313</v>
       </c>
@@ -26500,7 +26505,7 @@
       <c r="F24" s="80"/>
       <c r="G24" s="80"/>
     </row>
-    <row r="25" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="97" t="s">
         <v>208</v>
       </c>
@@ -26545,7 +26550,7 @@
         <v>157.22999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="73" t="s">
         <v>287</v>
@@ -26571,7 +26576,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="84" t="s">
         <v>284</v>
       </c>
@@ -26684,7 +26689,7 @@
       <c r="F33" s="73"/>
       <c r="G33" s="73"/>
     </row>
-    <row r="34" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="79" t="s">
         <v>308</v>
       </c>
@@ -26695,7 +26700,7 @@
       <c r="F34" s="80"/>
       <c r="G34" s="80"/>
     </row>
-    <row r="35" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="84"/>
       <c r="B35" s="46" t="s">
         <v>303</v>
@@ -26718,11 +26723,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="84"/>
       <c r="B36" s="46"/>
     </row>
-    <row r="37" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
         <v>314</v>
       </c>
@@ -26733,7 +26738,7 @@
       <c r="F37" s="80"/>
       <c r="G37" s="80"/>
     </row>
-    <row r="38" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="97" t="s">
         <v>282</v>
       </c>
@@ -26761,7 +26766,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="73" t="s">
         <v>292</v>
@@ -26787,7 +26792,7 @@
         <v>0.92249999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="97" t="s">
         <v>105</v>
       </c>
@@ -26815,7 +26820,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
         <v>311</v>
       </c>
@@ -26826,7 +26831,7 @@
       <c r="F42" s="80"/>
       <c r="G42" s="80"/>
     </row>
-    <row r="43" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="84"/>
       <c r="B43" s="84"/>
       <c r="C43" s="44" t="s">
@@ -26864,12 +26869,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="79" t="s">
         <v>313</v>
       </c>
@@ -26880,7 +26885,7 @@
       <c r="F47" s="80"/>
       <c r="G47" s="80"/>
     </row>
-    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="97" t="s">
         <v>208</v>
       </c>
@@ -26925,7 +26930,7 @@
         <v>183.435</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="73" t="s">
         <v>288</v>
@@ -26951,7 +26956,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="84" t="s">
         <v>285</v>
       </c>
@@ -27064,7 +27069,7 @@
       <c r="F56" s="73"/>
       <c r="G56" s="73"/>
     </row>
-    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="79" t="s">
         <v>309</v>
       </c>
@@ -27075,7 +27080,7 @@
       <c r="F57" s="80"/>
       <c r="G57" s="80"/>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="84"/>
       <c r="B58" s="46" t="s">
         <v>304</v>
@@ -27098,11 +27103,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="84"/>
       <c r="B59" s="46"/>
     </row>
-    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="79" t="s">
         <v>314</v>
       </c>
@@ -27113,7 +27118,7 @@
       <c r="F60" s="80"/>
       <c r="G60" s="80"/>
     </row>
-    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="97" t="s">
         <v>282</v>
       </c>
@@ -27141,7 +27146,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="73" t="s">
         <v>293</v>
@@ -27167,7 +27172,7 @@
         <v>1.0762499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="97" t="s">
         <v>105</v>
       </c>
@@ -27195,7 +27200,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="79" t="s">
         <v>312</v>
       </c>
@@ -27206,7 +27211,7 @@
       <c r="F65" s="80"/>
       <c r="G65" s="80"/>
     </row>
-    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="84"/>
       <c r="B66" s="84"/>
       <c r="C66" s="44" t="s">
@@ -27266,16 +27271,16 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.08984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" style="28" customWidth="1"/>
-    <col min="2" max="6" width="16.08984375" style="28"/>
-    <col min="7" max="7" width="17.1796875" style="28" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="16.08984375" style="28"/>
+    <col min="1" max="1" width="52.21875" style="28" customWidth="1"/>
+    <col min="2" max="6" width="16.109375" style="28"/>
+    <col min="7" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="16.109375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>163</v>
       </c>
@@ -27521,12 +27526,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>163</v>
       </c>
@@ -27820,12 +27825,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="107" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="107" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>163</v>
       </c>
@@ -28140,15 +28145,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="58.90625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="58.88671875" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="15" width="15" style="28" customWidth="1"/>
-    <col min="16" max="16384" width="12.81640625" style="28"/>
+    <col min="16" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="83" t="s">
@@ -28191,7 +28196,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>326</v>
       </c>
@@ -28636,7 +28641,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>190</v>
       </c>
@@ -28768,7 +28773,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>323</v>
       </c>
@@ -28950,12 +28955,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="52" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="83" t="s">
@@ -28998,7 +29003,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>327</v>
       </c>
@@ -29744,7 +29749,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>324</v>
       </c>
@@ -29978,12 +29983,12 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="107" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="52" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="83" t="s">
@@ -30026,7 +30031,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>328</v>
       </c>
@@ -30772,7 +30777,7 @@
         <v>0.34650000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>325</v>
       </c>
@@ -31027,15 +31032,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" style="28" customWidth="1"/>
-    <col min="3" max="7" width="15.54296875" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="28"/>
+    <col min="1" max="1" width="21.33203125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="28" customWidth="1"/>
+    <col min="3" max="7" width="15.5546875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="42"/>
       <c r="C1" s="30" t="s">
@@ -31054,7 +31059,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>333</v>
       </c>
@@ -31079,7 +31084,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>330</v>
       </c>
@@ -31110,12 +31115,12 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="107" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="42"/>
       <c r="C8" s="30" t="s">
@@ -31134,7 +31139,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>334</v>
       </c>
@@ -31164,7 +31169,7 @@
         <v>0.189</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>331</v>
       </c>
@@ -31200,12 +31205,12 @@
         <v>0.12869999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="107" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="42"/>
       <c r="C15" s="30" t="s">
@@ -31224,7 +31229,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>335</v>
       </c>
@@ -31254,7 +31259,7 @@
         <v>0.2205</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>332</v>
       </c>
@@ -31311,20 +31316,20 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="40" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="40" customWidth="1"/>
     <col min="4" max="4" width="15" style="28" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="28" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" style="28"/>
-    <col min="8" max="8" width="17.54296875" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="12.81640625" style="28"/>
+    <col min="5" max="5" width="13.6640625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" style="28"/>
+    <col min="8" max="8" width="17.5546875" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>163</v>
       </c>
@@ -32507,14 +32512,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="111" t="s">
         <v>329</v>
       </c>
       <c r="B55" s="112"/>
       <c r="C55" s="112"/>
     </row>
-    <row r="56" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>163</v>
       </c>
@@ -33957,14 +33962,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="108" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="111" t="s">
         <v>336</v>
       </c>
       <c r="B110" s="112"/>
       <c r="C110" s="112"/>
     </row>
-    <row r="111" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>163</v>
       </c>
@@ -35428,16 +35433,16 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="23.6328125" style="28" customWidth="1"/>
-    <col min="4" max="7" width="17.1796875" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="12.81640625" style="28"/>
+    <col min="2" max="2" width="27.44140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="28" customWidth="1"/>
+    <col min="4" max="7" width="17.21875" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="12.77734375" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>163</v>
       </c>
@@ -35585,12 +35590,12 @@
       </c>
       <c r="H7" s="32"/>
     </row>
-    <row r="9" spans="1:8" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="107" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>163</v>
       </c>
@@ -35755,12 +35760,12 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="107" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="107" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="107" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>163</v>
       </c>
@@ -35945,14 +35950,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.08984375" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="str">
         <f>"Porcentaje de muertes en el año de referencia ("&amp;start_year&amp;") atribuible a la causa"</f>
         <v>Porcentaje de muertes en el año de referencia (2017) atribuible a la causa</v>
@@ -35963,7 +35968,7 @@
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -36046,7 +36051,7 @@
       <c r="B11" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="116">
+      <c r="C11" s="115">
         <f>SUM(C3:C10)</f>
         <v>1</v>
       </c>
@@ -36062,7 +36067,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>83</v>
       </c>
@@ -36240,19 +36245,19 @@
       <c r="B23" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="116">
+      <c r="C23" s="115">
         <f>SUM(C14:C22)</f>
         <v>1</v>
       </c>
-      <c r="D23" s="116">
+      <c r="D23" s="115">
         <f t="shared" ref="D23:F23" si="0">SUM(D14:D22)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="116">
+      <c r="E23" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F23" s="116">
+      <c r="F23" s="115">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36268,7 +36273,7 @@
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -36360,7 +36365,7 @@
       <c r="B35" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="116">
+      <c r="C35" s="115">
         <f>SUM(C26:C34)</f>
         <v>1</v>
       </c>
@@ -36384,13 +36389,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Porcentaje de población en cada categoría en el año de referencia ("&amp;start_year&amp;")"</f>
         <v>Porcentaje de población en cada categoría en el año de referencia (2017)</v>
@@ -36421,23 +36426,23 @@
       <c r="B2" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="D2" s="117">
+      <c r="D2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.54471569980476653</v>
       </c>
-      <c r="E2" s="117">
+      <c r="E2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.44982829694488635</v>
       </c>
-      <c r="F2" s="117">
+      <c r="F2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.24457139941017503</v>
       </c>
-      <c r="G2" s="117">
+      <c r="G2" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.23269074767298425</v>
       </c>
@@ -36446,23 +36451,23 @@
       <c r="B3" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="117">
+      <c r="C3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="D3" s="117">
+      <c r="D3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v>0.32228430019523346</v>
       </c>
-      <c r="E3" s="117">
+      <c r="E3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v>0.35908666207150708</v>
       </c>
-      <c r="F3" s="117">
+      <c r="F3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v>0.37651189492768178</v>
       </c>
-      <c r="G3" s="117">
+      <c r="G3" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v>0.37372365733745416</v>
       </c>
@@ -36530,23 +36535,23 @@
       <c r="B8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.6241955901533508</v>
       </c>
-      <c r="E8" s="117">
+      <c r="E8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.68355843805440353</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.73228840888273117</v>
       </c>
-      <c r="G8" s="117">
+      <c r="G8" s="116">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v>0.81212055177975573</v>
       </c>
@@ -36555,23 +36560,23 @@
       <c r="B9" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="117">
+      <c r="C9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="D9" s="117">
+      <c r="D9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v>0.28180440984664923</v>
       </c>
-      <c r="E9" s="117">
+      <c r="E9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v>0.2466938696379041</v>
       </c>
-      <c r="F9" s="117">
+      <c r="F9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v>0.21506846670192739</v>
       </c>
-      <c r="G9" s="117">
+      <c r="G9" s="116">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v>0.15821429221536368</v>
       </c>
@@ -36722,55 +36727,55 @@
       <c r="B15" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="116">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="D15" s="117">
+      <c r="D15" s="116">
         <f t="shared" si="0"/>
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E15" s="117">
+      <c r="E15" s="116">
         <f t="shared" si="0"/>
         <v>0.32801999999999998</v>
       </c>
-      <c r="F15" s="117">
+      <c r="F15" s="116">
         <f t="shared" si="0"/>
         <v>0.30639</v>
       </c>
-      <c r="G15" s="117">
+      <c r="G15" s="116">
         <f t="shared" si="0"/>
         <v>0.20314000000000002</v>
       </c>
-      <c r="H15" s="117">
+      <c r="H15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="I15" s="117">
+      <c r="I15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="K15" s="117">
+      <c r="K15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
-      <c r="L15" s="117">
+      <c r="L15" s="116">
         <f t="shared" si="0"/>
         <v>0.19865999999999998</v>
       </c>
-      <c r="M15" s="117">
+      <c r="M15" s="116">
         <f t="shared" si="0"/>
         <v>0.18773999999999999</v>
       </c>
-      <c r="N15" s="117">
+      <c r="N15" s="116">
         <f t="shared" si="0"/>
         <v>0.18185999999999999</v>
       </c>
-      <c r="O15" s="117">
+      <c r="O15" s="116">
         <f t="shared" si="0"/>
         <v>0.18564</v>
       </c>
@@ -36808,13 +36813,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="2" max="7" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="str">
         <f>"Porcentaje de niños en cada categoría en el año de referencia ("&amp;start_year&amp;")"</f>
         <v>Porcentaje de niños en cada categoría en el año de referencia (2017)</v>
@@ -36905,23 +36910,23 @@
       <c r="B5" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="117">
+      <c r="C5" s="116">
         <f>1-SUM(C2:C4)</f>
         <v>1.0000000000000009E-2</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="116">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
         <v>2.4399366085578356E-2</v>
       </c>
-      <c r="E5" s="117">
+      <c r="E5" s="116">
         <f t="shared" si="0"/>
         <v>1.8961838681699872E-2</v>
       </c>
-      <c r="F5" s="117">
+      <c r="F5" s="116">
         <f t="shared" si="0"/>
         <v>0.27800000000000002</v>
       </c>
-      <c r="G5" s="117">
+      <c r="G5" s="116">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -36941,16 +36946,16 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.453125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>135</v>
       </c>
@@ -37148,13 +37153,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>147</v>
       </c>
@@ -37224,18 +37229,18 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="28" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="11.453125" style="28"/>
+    <col min="2" max="2" width="19.109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>154</v>
       </c>
@@ -37252,14 +37257,16 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>151</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="63"/>
+      <c r="C2" s="63" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="63"/>
       <c r="E2" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
@@ -37270,8 +37277,8 @@
       <c r="B3" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="63" t="b">
-        <v>1</v>
+      <c r="C3" s="63" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="45" t="str">
@@ -37283,8 +37290,8 @@
       <c r="B4" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="63" t="b">
-        <v>1</v>
+      <c r="C4" s="63" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="45" t="str">
@@ -37296,8 +37303,8 @@
       <c r="B5" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="63" t="b">
-        <v>1</v>
+      <c r="C5" s="63" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="45" t="str">
@@ -37309,8 +37316,8 @@
       <c r="B6" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="63" t="b">
-        <v>1</v>
+      <c r="C6" s="63" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="45" t="str">
@@ -37326,7 +37333,7 @@
       <c r="D7" s="33"/>
       <c r="E7" s="63"/>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>152</v>
       </c>
@@ -37334,9 +37341,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="63"/>
-      <c r="D9" s="63" t="b">
-        <v>0</v>
-      </c>
+      <c r="D9" s="63"/>
       <c r="E9" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37347,7 +37352,9 @@
         <v>78</v>
       </c>
       <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="D10" s="63" t="s">
+        <v>5</v>
+      </c>
       <c r="E10" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37358,7 +37365,9 @@
         <v>74</v>
       </c>
       <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
+      <c r="D11" s="63" t="s">
+        <v>5</v>
+      </c>
       <c r="E11" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37369,7 +37378,9 @@
         <v>77</v>
       </c>
       <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="D12" s="63" t="s">
+        <v>5</v>
+      </c>
       <c r="E12" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37380,7 +37391,9 @@
         <v>75</v>
       </c>
       <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="D13" s="63" t="s">
+        <v>5</v>
+      </c>
       <c r="E13" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37392,11 +37405,9 @@
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="E14" s="63"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>153</v>
       </c>
@@ -37404,9 +37415,7 @@
         <v>104</v>
       </c>
       <c r="C16" s="63"/>
-      <c r="D16" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="D16" s="63"/>
       <c r="E16" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37443,9 +37452,7 @@
         <v>77</v>
       </c>
       <c r="C19" s="63"/>
-      <c r="D19" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="D19" s="63"/>
       <c r="E19" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37456,9 +37463,7 @@
         <v>75</v>
       </c>
       <c r="C20" s="63"/>
-      <c r="D20" s="63" t="s">
-        <v>5</v>
-      </c>
+      <c r="D20" s="63"/>
       <c r="E20" s="45" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
@@ -37490,15 +37495,15 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>4</v>
       </c>
@@ -37512,7 +37517,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>163</v>
       </c>
@@ -37524,7 +37529,7 @@
       </c>
       <c r="D2" s="63"/>
     </row>
-    <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="48" t="s">
         <v>160</v>
       </c>

--- a/inputs/es/demo_demo_input.xlsx
+++ b/inputs/es/demo_demo_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\GitHub\Nutrition\inputs\es\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\modeling\Nutrition\inputs\es\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540221BB-DB0B-469F-A3FE-EF74DC519E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FADECB7-E430-46BC-8853-07883370DC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15225" yWindow="-18120" windowWidth="29040" windowHeight="17640" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="961" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entradas de población-año base" sheetId="1" r:id="rId1"/>
@@ -5108,7 +5108,7 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -6533,7 +6533,7 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -16750,12 +16750,36 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="TySjcQ3cZKAhvCVtqukwx+Brh3QqySyX6u1Ir4ln2eG/yPsONTsurP782qPpmW3r4kCP2UsulEi/iMokEOt/yw==" saltValue="ZVdCbbyzBC9w3TfMh2e1Iw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B153"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:B116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B108:B110"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B67:B69"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
@@ -16765,36 +16789,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B108:B110"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B153"/>
-    <mergeCell ref="B154:B156"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -31312,8 +31312,8 @@
   </sheetPr>
   <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31372,13 +31372,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="G2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
       <c r="H2" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.39473684210526322</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -31392,13 +31392,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="G3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
       <c r="H3" s="105">
-        <v>0.53134328358208949</v>
+        <v>0.30769230769230765</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -31725,7 +31725,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="G18" s="105">
         <v>0.62</v>
@@ -31768,7 +31768,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G20" s="105">
         <v>0.62</v>
@@ -31788,13 +31788,13 @@
         <v>337</v>
       </c>
       <c r="D21" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E21" s="105">
         <v>0</v>
       </c>
       <c r="F21" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G21" s="105">
         <v>0</v>
@@ -31814,7 +31814,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G22" s="105">
         <v>0</v>
@@ -31834,13 +31834,13 @@
         <v>337</v>
       </c>
       <c r="D23" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E23" s="105">
         <v>0</v>
       </c>
       <c r="F23" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="105">
         <v>0</v>
@@ -31860,7 +31860,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G24" s="105">
         <v>0</v>
@@ -31880,13 +31880,13 @@
         <v>337</v>
       </c>
       <c r="D25" s="105">
-        <v>0.7</v>
+        <v>0.28260869565217389</v>
       </c>
       <c r="E25" s="105">
         <v>0</v>
       </c>
       <c r="F25" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G25" s="105">
         <v>0</v>
@@ -31906,7 +31906,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G26" s="105">
         <v>0</v>
@@ -31932,7 +31932,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G27" s="105">
         <v>1</v>
@@ -31952,7 +31952,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="105">
         <v>0</v>
@@ -31972,7 +31972,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G29" s="105">
         <v>0</v>
@@ -31998,7 +31998,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G30" s="105">
         <v>1</v>
@@ -32018,7 +32018,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G31" s="105">
         <v>0</v>
@@ -32038,7 +32038,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G32" s="105">
         <v>0</v>
@@ -32064,7 +32064,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G33" s="105">
         <v>1</v>
@@ -32084,7 +32084,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G34" s="105">
         <v>0</v>
@@ -32104,7 +32104,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G35" s="105">
         <v>0</v>
@@ -32130,7 +32130,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G36" s="105">
         <v>1</v>
@@ -32150,7 +32150,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G37" s="105">
         <v>0</v>
@@ -32170,7 +32170,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G38" s="105">
         <v>0</v>
@@ -32196,7 +32196,7 @@
         <v>1</v>
       </c>
       <c r="F39" s="105">
-        <v>0.33500000000000002</v>
+        <v>1</v>
       </c>
       <c r="G39" s="105">
         <v>1</v>
@@ -32216,7 +32216,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G40" s="105">
         <v>0</v>
@@ -32236,7 +32236,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G41" s="105">
         <v>0</v>
@@ -32262,7 +32262,7 @@
         <v>0.3</v>
       </c>
       <c r="F42" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G42" s="105">
         <v>0.3</v>
@@ -32282,7 +32282,7 @@
         <v>0.5</v>
       </c>
       <c r="F43" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G43" s="105">
         <v>0.5</v>
@@ -32302,7 +32302,7 @@
         <v>0.65</v>
       </c>
       <c r="F44" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.65</v>
       </c>
       <c r="G44" s="105">
         <v>0.65</v>
@@ -32325,7 +32325,7 @@
         <v>0.3</v>
       </c>
       <c r="F45" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="G45" s="105">
         <v>0.3</v>
@@ -32345,7 +32345,7 @@
         <v>0.49</v>
       </c>
       <c r="F46" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.49</v>
       </c>
       <c r="G46" s="105">
         <v>0.49</v>
@@ -32365,7 +32365,7 @@
         <v>0.52</v>
       </c>
       <c r="F47" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.52</v>
       </c>
       <c r="G47" s="105">
         <v>0.52</v>
@@ -32391,7 +32391,7 @@
         <v>0.88</v>
       </c>
       <c r="F48" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88</v>
       </c>
       <c r="G48" s="105">
         <v>0.88</v>
@@ -32405,19 +32405,19 @@
         <v>339</v>
       </c>
       <c r="D49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="E49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="F49" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="G49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
       <c r="H49" s="105">
-        <v>0.93</v>
+        <v>0.78409090909090906</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -32431,19 +32431,19 @@
         <v>337</v>
       </c>
       <c r="D50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="E50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="F50" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="G50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
       <c r="H50" s="105">
-        <v>1</v>
+        <v>0.88372093023255816</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -32457,7 +32457,7 @@
         <v>0.86</v>
       </c>
       <c r="F51" s="105">
-        <v>0.33500000000000002</v>
+        <v>0.86</v>
       </c>
       <c r="G51" s="105">
         <v>0.86</v>
@@ -32483,7 +32483,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F52" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G52" s="105">
         <v>0</v>
@@ -32503,7 +32503,7 @@
         <v>0.51</v>
       </c>
       <c r="F53" s="105">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
       <c r="G53" s="105">
         <v>0</v>
@@ -32565,15 +32565,15 @@
       </c>
       <c r="F57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="G57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
       <c r="H57" s="105">
         <f t="shared" si="0"/>
-        <v>0.30150000000000005</v>
+        <v>0.35526315789473689</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -32590,15 +32590,15 @@
       </c>
       <c r="F58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="G58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
       <c r="H58" s="105">
         <f t="shared" si="0"/>
-        <v>0.47820895522388057</v>
+        <v>0.27692307692307688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -32998,7 +32998,7 @@
       </c>
       <c r="F73" s="105">
         <f t="shared" si="5"/>
-        <v>0.30150000000000005</v>
+        <v>0.63</v>
       </c>
       <c r="G73" s="105">
         <f t="shared" si="5"/>
@@ -33051,7 +33051,7 @@
       </c>
       <c r="F75" s="105">
         <f t="shared" si="7"/>
-        <v>0.30150000000000005</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="G75" s="105">
         <f t="shared" si="7"/>
@@ -33074,7 +33074,7 @@
       </c>
       <c r="D76" s="105">
         <f t="shared" ref="D76:H76" si="8">D21*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E76" s="105">
         <f t="shared" si="8"/>
@@ -33082,7 +33082,7 @@
       </c>
       <c r="F76" s="105">
         <f t="shared" si="8"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G76" s="105">
         <f t="shared" si="8"/>
@@ -33107,7 +33107,7 @@
       </c>
       <c r="F77" s="105">
         <f t="shared" si="9"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G77" s="105">
         <f t="shared" si="9"/>
@@ -33130,7 +33130,7 @@
       </c>
       <c r="D78" s="105">
         <f t="shared" ref="D78:H78" si="10">D23*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E78" s="105">
         <f t="shared" si="10"/>
@@ -33138,7 +33138,7 @@
       </c>
       <c r="F78" s="105">
         <f t="shared" si="10"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G78" s="105">
         <f t="shared" si="10"/>
@@ -33163,7 +33163,7 @@
       </c>
       <c r="F79" s="105">
         <f t="shared" si="11"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G79" s="105">
         <f t="shared" si="11"/>
@@ -33186,7 +33186,7 @@
       </c>
       <c r="D80" s="105">
         <f t="shared" ref="D80:H80" si="12">D25*0.9</f>
-        <v>0.63</v>
+        <v>0.2543478260869565</v>
       </c>
       <c r="E80" s="105">
         <f t="shared" si="12"/>
@@ -33194,7 +33194,7 @@
       </c>
       <c r="F80" s="105">
         <f t="shared" si="12"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G80" s="105">
         <f t="shared" si="12"/>
@@ -33219,7 +33219,7 @@
       </c>
       <c r="F81" s="105">
         <f t="shared" si="13"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G81" s="105">
         <f t="shared" si="13"/>
@@ -33250,7 +33250,7 @@
       </c>
       <c r="F82" s="105">
         <f t="shared" si="14"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G82" s="105">
         <f t="shared" si="14"/>
@@ -33275,7 +33275,7 @@
       </c>
       <c r="F83" s="105">
         <f t="shared" si="15"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G83" s="105">
         <f t="shared" si="15"/>
@@ -33300,7 +33300,7 @@
       </c>
       <c r="F84" s="105">
         <f t="shared" si="16"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G84" s="105">
         <f t="shared" si="16"/>
@@ -33331,7 +33331,7 @@
       </c>
       <c r="F85" s="105">
         <f t="shared" si="17"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G85" s="105">
         <f t="shared" si="17"/>
@@ -33356,7 +33356,7 @@
       </c>
       <c r="F86" s="105">
         <f t="shared" si="18"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G86" s="105">
         <f t="shared" si="18"/>
@@ -33381,7 +33381,7 @@
       </c>
       <c r="F87" s="105">
         <f t="shared" si="19"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G87" s="105">
         <f t="shared" si="19"/>
@@ -33412,7 +33412,7 @@
       </c>
       <c r="F88" s="105">
         <f t="shared" si="20"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G88" s="105">
         <f t="shared" si="20"/>
@@ -33437,7 +33437,7 @@
       </c>
       <c r="F89" s="105">
         <f t="shared" si="21"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G89" s="105">
         <f t="shared" si="21"/>
@@ -33462,7 +33462,7 @@
       </c>
       <c r="F90" s="105">
         <f t="shared" si="22"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G90" s="105">
         <f t="shared" si="22"/>
@@ -33493,7 +33493,7 @@
       </c>
       <c r="F91" s="105">
         <f t="shared" si="23"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G91" s="105">
         <f t="shared" si="23"/>
@@ -33518,7 +33518,7 @@
       </c>
       <c r="F92" s="105">
         <f t="shared" si="24"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G92" s="105">
         <f t="shared" si="24"/>
@@ -33543,7 +33543,7 @@
       </c>
       <c r="F93" s="105">
         <f t="shared" si="25"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G93" s="105">
         <f t="shared" si="25"/>
@@ -33574,7 +33574,7 @@
       </c>
       <c r="F94" s="105">
         <f t="shared" si="26"/>
-        <v>0.30150000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="G94" s="105">
         <f t="shared" si="26"/>
@@ -33599,7 +33599,7 @@
       </c>
       <c r="F95" s="105">
         <f t="shared" si="27"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G95" s="105">
         <f t="shared" si="27"/>
@@ -33624,7 +33624,7 @@
       </c>
       <c r="F96" s="105">
         <f t="shared" si="28"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G96" s="105">
         <f t="shared" si="28"/>
@@ -33655,7 +33655,7 @@
       </c>
       <c r="F97" s="105">
         <f t="shared" si="29"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G97" s="105">
         <f t="shared" si="29"/>
@@ -33680,7 +33680,7 @@
       </c>
       <c r="F98" s="105">
         <f t="shared" si="30"/>
-        <v>0.30150000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="G98" s="105">
         <f t="shared" si="30"/>
@@ -33705,7 +33705,7 @@
       </c>
       <c r="F99" s="105">
         <f t="shared" si="31"/>
-        <v>0.30150000000000005</v>
+        <v>0.58500000000000008</v>
       </c>
       <c r="G99" s="105">
         <f t="shared" si="31"/>
@@ -33733,7 +33733,7 @@
       </c>
       <c r="F100" s="105">
         <f t="shared" si="32"/>
-        <v>0.30150000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="G100" s="105">
         <f t="shared" si="32"/>
@@ -33758,7 +33758,7 @@
       </c>
       <c r="F101" s="105">
         <f t="shared" si="33"/>
-        <v>0.30150000000000005</v>
+        <v>0.441</v>
       </c>
       <c r="G101" s="105">
         <f t="shared" si="33"/>
@@ -33783,7 +33783,7 @@
       </c>
       <c r="F102" s="105">
         <f t="shared" si="34"/>
-        <v>0.30150000000000005</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="G102" s="105">
         <f t="shared" si="34"/>
@@ -33814,7 +33814,7 @@
       </c>
       <c r="F103" s="105">
         <f t="shared" si="35"/>
-        <v>0.30150000000000005</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="G103" s="105">
         <f t="shared" si="35"/>
@@ -33831,23 +33831,23 @@
       </c>
       <c r="D104" s="105">
         <f t="shared" ref="D104:H104" si="36">D49*0.9</f>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="E104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="F104" s="105">
         <f t="shared" si="36"/>
-        <v>0.30150000000000005</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="G104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
       <c r="H104" s="105">
         <f t="shared" si="36"/>
-        <v>0.83700000000000008</v>
+        <v>0.70568181818181819</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -33862,23 +33862,23 @@
       </c>
       <c r="D105" s="105">
         <f t="shared" ref="D105:H105" si="37">D50*0.9</f>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="E105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="F105" s="105">
         <f t="shared" si="37"/>
-        <v>0.30150000000000005</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="G105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
       <c r="H105" s="105">
         <f t="shared" si="37"/>
-        <v>0.9</v>
+        <v>0.79534883720930238</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -33895,7 +33895,7 @@
       </c>
       <c r="F106" s="105">
         <f t="shared" si="38"/>
-        <v>0.30150000000000005</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="G106" s="105">
         <f t="shared" si="38"/>
@@ -33926,7 +33926,7 @@
       </c>
       <c r="F107" s="105">
         <f t="shared" si="39"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G107" s="105">
         <f t="shared" si="39"/>
@@ -33951,7 +33951,7 @@
       </c>
       <c r="F108" s="105">
         <f t="shared" si="40"/>
-        <v>0.30150000000000005</v>
+        <v>0</v>
       </c>
       <c r="G108" s="105">
         <f t="shared" si="40"/>
@@ -34015,15 +34015,15 @@
       </c>
       <c r="F112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="G112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
       <c r="H112" s="105">
         <f t="shared" si="41"/>
-        <v>0.35175000000000006</v>
+        <v>0.41447368421052638</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -34040,15 +34040,15 @@
       </c>
       <c r="F113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="G113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="H113" s="105">
         <f t="shared" si="41"/>
-        <v>0.55791044776119403</v>
+        <v>0.32307692307692304</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -34448,7 +34448,7 @@
       </c>
       <c r="F128" s="105">
         <f t="shared" si="46"/>
-        <v>0.35175000000000006</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="G128" s="105">
         <f t="shared" si="46"/>
@@ -34501,7 +34501,7 @@
       </c>
       <c r="F130" s="105">
         <f t="shared" si="48"/>
-        <v>0.35175000000000006</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="G130" s="105">
         <f t="shared" si="48"/>
@@ -34524,7 +34524,7 @@
       </c>
       <c r="D131" s="105">
         <f t="shared" ref="D131:H131" si="49">D21*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E131" s="105">
         <f t="shared" si="49"/>
@@ -34532,7 +34532,7 @@
       </c>
       <c r="F131" s="105">
         <f t="shared" si="49"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G131" s="105">
         <f t="shared" si="49"/>
@@ -34557,7 +34557,7 @@
       </c>
       <c r="F132" s="105">
         <f t="shared" si="50"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G132" s="105">
         <f t="shared" si="50"/>
@@ -34580,7 +34580,7 @@
       </c>
       <c r="D133" s="105">
         <f t="shared" ref="D133:H133" si="51">D23*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E133" s="105">
         <f t="shared" si="51"/>
@@ -34588,7 +34588,7 @@
       </c>
       <c r="F133" s="105">
         <f t="shared" si="51"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G133" s="105">
         <f t="shared" si="51"/>
@@ -34613,7 +34613,7 @@
       </c>
       <c r="F134" s="105">
         <f t="shared" si="52"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G134" s="105">
         <f t="shared" si="52"/>
@@ -34636,7 +34636,7 @@
       </c>
       <c r="D135" s="105">
         <f t="shared" ref="D135:H135" si="53">D25*1.05</f>
-        <v>0.73499999999999999</v>
+        <v>0.29673913043478262</v>
       </c>
       <c r="E135" s="105">
         <f t="shared" si="53"/>
@@ -34644,7 +34644,7 @@
       </c>
       <c r="F135" s="105">
         <f t="shared" si="53"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G135" s="105">
         <f t="shared" si="53"/>
@@ -34669,7 +34669,7 @@
       </c>
       <c r="F136" s="105">
         <f t="shared" si="54"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G136" s="105">
         <f t="shared" si="54"/>
@@ -34700,7 +34700,7 @@
       </c>
       <c r="F137" s="105">
         <f t="shared" si="55"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G137" s="105">
         <f t="shared" si="55"/>
@@ -34725,7 +34725,7 @@
       </c>
       <c r="F138" s="105">
         <f t="shared" si="56"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G138" s="105">
         <f t="shared" si="56"/>
@@ -34750,7 +34750,7 @@
       </c>
       <c r="F139" s="105">
         <f t="shared" si="57"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G139" s="105">
         <f t="shared" si="57"/>
@@ -34781,7 +34781,7 @@
       </c>
       <c r="F140" s="105">
         <f t="shared" si="58"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G140" s="105">
         <f t="shared" si="58"/>
@@ -34806,7 +34806,7 @@
       </c>
       <c r="F141" s="105">
         <f t="shared" si="59"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G141" s="105">
         <f t="shared" si="59"/>
@@ -34831,7 +34831,7 @@
       </c>
       <c r="F142" s="105">
         <f t="shared" si="60"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G142" s="105">
         <f t="shared" si="60"/>
@@ -34862,7 +34862,7 @@
       </c>
       <c r="F143" s="105">
         <f t="shared" si="61"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G143" s="105">
         <f t="shared" si="61"/>
@@ -34887,7 +34887,7 @@
       </c>
       <c r="F144" s="105">
         <f t="shared" si="62"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G144" s="105">
         <f t="shared" si="62"/>
@@ -34912,7 +34912,7 @@
       </c>
       <c r="F145" s="105">
         <f t="shared" si="63"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G145" s="105">
         <f t="shared" si="63"/>
@@ -34943,7 +34943,7 @@
       </c>
       <c r="F146" s="105">
         <f t="shared" si="64"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G146" s="105">
         <f t="shared" si="64"/>
@@ -34968,7 +34968,7 @@
       </c>
       <c r="F147" s="105">
         <f t="shared" si="65"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G147" s="105">
         <f t="shared" si="65"/>
@@ -34993,7 +34993,7 @@
       </c>
       <c r="F148" s="105">
         <f t="shared" si="66"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G148" s="105">
         <f t="shared" si="66"/>
@@ -35024,7 +35024,7 @@
       </c>
       <c r="F149" s="105">
         <f t="shared" si="67"/>
-        <v>0.35175000000000006</v>
+        <v>1.05</v>
       </c>
       <c r="G149" s="105">
         <f t="shared" si="67"/>
@@ -35049,7 +35049,7 @@
       </c>
       <c r="F150" s="105">
         <f t="shared" si="68"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G150" s="105">
         <f t="shared" si="68"/>
@@ -35074,7 +35074,7 @@
       </c>
       <c r="F151" s="105">
         <f t="shared" si="69"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G151" s="105">
         <f t="shared" si="69"/>
@@ -35105,7 +35105,7 @@
       </c>
       <c r="F152" s="105">
         <f t="shared" si="70"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G152" s="105">
         <f t="shared" si="70"/>
@@ -35130,7 +35130,7 @@
       </c>
       <c r="F153" s="105">
         <f t="shared" si="71"/>
-        <v>0.35175000000000006</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="G153" s="105">
         <f t="shared" si="71"/>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="F154" s="105">
         <f t="shared" si="72"/>
-        <v>0.35175000000000006</v>
+        <v>0.68250000000000011</v>
       </c>
       <c r="G154" s="105">
         <f t="shared" si="72"/>
@@ -35183,7 +35183,7 @@
       </c>
       <c r="F155" s="105">
         <f t="shared" si="73"/>
-        <v>0.35175000000000006</v>
+        <v>0.315</v>
       </c>
       <c r="G155" s="105">
         <f t="shared" si="73"/>
@@ -35208,7 +35208,7 @@
       </c>
       <c r="F156" s="105">
         <f t="shared" si="74"/>
-        <v>0.35175000000000006</v>
+        <v>0.51449999999999996</v>
       </c>
       <c r="G156" s="105">
         <f t="shared" si="74"/>
@@ -35233,7 +35233,7 @@
       </c>
       <c r="F157" s="105">
         <f t="shared" si="75"/>
-        <v>0.35175000000000006</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="G157" s="105">
         <f t="shared" si="75"/>
@@ -35264,7 +35264,7 @@
       </c>
       <c r="F158" s="105">
         <f t="shared" si="76"/>
-        <v>0.35175000000000006</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="G158" s="105">
         <f t="shared" si="76"/>
@@ -35281,23 +35281,23 @@
       </c>
       <c r="D159" s="105">
         <f t="shared" ref="D159:H159" si="77">D49*1.05</f>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="E159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="F159" s="105">
         <f t="shared" si="77"/>
-        <v>0.35175000000000006</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="G159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
       <c r="H159" s="105">
         <f t="shared" si="77"/>
-        <v>0.97650000000000015</v>
+        <v>0.8232954545454545</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -35312,23 +35312,23 @@
       </c>
       <c r="D160" s="105">
         <f t="shared" ref="D160:H160" si="78">D50*1.05</f>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="E160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="F160" s="105">
         <f t="shared" si="78"/>
-        <v>0.35175000000000006</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="G160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
       <c r="H160" s="105">
         <f t="shared" si="78"/>
-        <v>1.05</v>
+        <v>0.9279069767441861</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -35345,7 +35345,7 @@
       </c>
       <c r="F161" s="105">
         <f t="shared" si="79"/>
-        <v>0.35175000000000006</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="G161" s="105">
         <f t="shared" si="79"/>
@@ -35376,7 +35376,7 @@
       </c>
       <c r="F162" s="105">
         <f t="shared" si="80"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G162" s="105">
         <f t="shared" si="80"/>
@@ -35401,7 +35401,7 @@
       </c>
       <c r="F163" s="105">
         <f t="shared" si="81"/>
-        <v>0.35175000000000006</v>
+        <v>0</v>
       </c>
       <c r="G163" s="105">
         <f t="shared" si="81"/>
